--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R43133c2e091b42e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R6df8cd4f23704898"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4f4ed0b760b44e50"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc92fe87187394897"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R6df8cd4f23704898"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R443516c09a504803"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc92fe87187394897"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8684800a701f4e86"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R443516c09a504803"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R743c8d5bbcc449cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8684800a701f4e86"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb19f32dea3044cf9"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R743c8d5bbcc449cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R426edaa11eb94182"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb19f32dea3044cf9"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30fe658f412f49ed"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R426edaa11eb94182"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc3a33b29b0c04f62"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R30fe658f412f49ed"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc5e495258e744599"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc3a33b29b0c04f62"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7ba1c74eeb6b4f64"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc5e495258e744599"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98328845bd374dd8"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7ba1c74eeb6b4f64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd3f7a4d179554214"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R98328845bd374dd8"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R671145c6c0db44a4"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd3f7a4d179554214"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R3ea0194182c04f4f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R671145c6c0db44a4"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R43bacc7f7804474a"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R3ea0194182c04f4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Re1316645ba934dac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R43bacc7f7804474a"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf31022eac4624893"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Re1316645ba934dac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R965b4ec017c94f34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf31022eac4624893"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Receda36c79544b61"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R965b4ec017c94f34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ra2215b4e89ce48d3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Receda36c79544b61"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Redeae669bb394954"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Ra2215b4e89ce48d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rb5aa47bbfcb64381"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Redeae669bb394954"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9d328a6b995947b1"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rb5aa47bbfcb64381"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R950ba503eef34a0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9d328a6b995947b1"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8144f3e72a844459"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R950ba503eef34a0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R6c975046ab664bfe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8144f3e72a844459"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5c3f0f8e24274c27"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R6c975046ab664bfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4e7351ff9d1a43ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5c3f0f8e24274c27"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba33cb617d374ea1"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4e7351ff9d1a43ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R791efd1db272463f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rba33cb617d374ea1"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3b0e6842ded041f4"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R791efd1db272463f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R72ec478133794b5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3b0e6842ded041f4"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bb24967f29b4701"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R72ec478133794b5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R55ceb09322314f66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7bb24967f29b4701"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc8895a5c1d64bf7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R55ceb09322314f66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7ae4a8705e0342a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc8895a5c1d64bf7"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8648c2008bae4a3a"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R7ae4a8705e0342a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R47804535de03421c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8648c2008bae4a3a"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55f80ac4555e4dee"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R47804535de03421c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R92f6d88e7aae4d83"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55f80ac4555e4dee"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5366cd62c0264767"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R92f6d88e7aae4d83"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd942c84968cd40a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5366cd62c0264767"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1d09a60e2148477d"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd942c84968cd40a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R007041c6d2664c33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1d09a60e2148477d"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf8a61c306417480f"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R007041c6d2664c33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0100c0497f714451"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf8a61c306417480f"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66de2d18af704aff"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0100c0497f714451"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R85f814ab20c240a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66de2d18af704aff"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3101f086fbda4000"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/49_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R85f814ab20c240a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R893c7cdfd5804dbe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3101f086fbda4000"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ca974d8ef47485c"/>
   </x:tableParts>
 </x:worksheet>
 </file>